--- a/app/tables/tabla_sor.xlsx
+++ b/app/tables/tabla_sor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.922857142857143</t>
+          <t>-2.33142857142857</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.76508571428571</t>
+          <t>12.9102857142857</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.340083265306123</t>
+          <t>-9.93799183673469</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58277387755102</t>
+          <t>9.51028571428571</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.926953240816327</t>
+          <t>45.0465583673469</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0661608517784252</t>
+          <t>-35.8314909854227</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.838132473469388</t>
+          <t>32.1362726530612</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.961153973009913</t>
+          <t>154.608013168513</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.251433598597385</t>
+          <t>-124.137169102474</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31759445037581</t>
+          <t>109.561454801166</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.3691419129855</t>
+          <t>528.273953204658</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.425448625024892</t>
+          <t>-425.312964741364</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.407987939975591</t>
+          <t>373.665940036145</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.320210790944</t>
+          <t>1802.7043529377</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.256105016542462</t>
+          <t>-1452.50801039195</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.16934360848243</t>
+          <t>1274.43039973304</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.12415526883695</t>
+          <t>6149.29780594256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.184191606719026</t>
+          <t>-4955.87654706984</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.196055522107052</t>
+          <t>4346.59345300486</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.16359189695201</t>
+          <t>20973.8619258964</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.272840860907208</t>
+          <t>-16904.5237164933</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0886492541881816</t>
+          <t>14824.5641199538</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.25654924296739</t>
+          <t>71534.7676059884</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.301087804818995</t>
+          <t>-57656.7790728434</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0929573460153819</t>
+          <t>50560.905680092</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.22989494447666</t>
+          <t>243978.635947309</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.255422196975456</t>
+          <t>-196647.100997825</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0456656078435383</t>
+          <t>172443.868341321</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.18644772675296</t>
+          <t>832118.569925788</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.245182253820057</t>
+          <t>-670689.811515146</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.043447217723696</t>
+          <t>588139.933978479</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.2029344564682</t>
+          <t>2838038.43977919</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.268365894323645</t>
+          <t>-2287467.7877249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0231836405035881</t>
+          <t>2005919.8698534</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.22292349675241</t>
+          <t>9679462.20955154</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.271555270818651</t>
+          <t>-7801677.7235855</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0199890402842091</t>
+          <t>6841423.76977235</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.21326872058668</t>
+          <t>33012936.2436</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.259943781854001</t>
+          <t>-26608534.1158444</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0116114889646501</t>
+          <t>23333474.0340484</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.20423543891077</t>
+          <t>112594472.020286</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.259296636215517</t>
+          <t>-90751512.2529015</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0090332816759071</t>
+          <t>79581535.7766865</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.20967861801557</t>
+          <t>384016585.475597</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.265037297864259</t>
+          <t>-309518623.484977</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0057406616487417</t>
+          <t>271422113.45531</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.2136756924845</t>
+          <t>1309733373.34047</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.264901707051387</t>
+          <t>-1055649382.40554</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0039970744689301</t>
+          <t>925716787.86487</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.21069333685074</t>
+          <t>4466998492.32993</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.262099475147604</t>
+          <t>-3600415395.32234</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0029823556337578</t>
+          <t>3157265118.98946</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.20896995040522</t>
+          <t>15235219574.913</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.262386890647467</t>
+          <t>-12279636809.3613</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0017233864455135</t>
+          <t>10768221082.583</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.2105672059969</t>
+          <t>51961494028.7033</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.263737319515188</t>
+          <t>-41881134146.0732</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0015972555916732</t>
+          <t>36726274453.7903</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.21128571034283</t>
+          <t>177220738328.281</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.263489994958115</t>
+          <t>-142840494758.536</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0007185043459294</t>
+          <t>125259244299.578</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.21044639590306</t>
+          <t>604432006442.137</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.262847788120861</t>
+          <t>-487174174211.843</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0008393144397702</t>
+          <t>427211268113.856</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.21016051471223</t>
+          <t>2061485883974.3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-0.263019619750136</t>
+          <t>-1661564365340.06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0002858811908263</t>
+          <t>1457053877532.17</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.21059432256162</t>
+          <t>7030938144455.71</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.263320750949053</t>
+          <t>-5666959141732.24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0004338078493926</t>
+          <t>4969452260481.41</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.21070019549758</t>
+          <t>23979834921718.8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.263212807104737</t>
+          <t>-19327825381884.8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0001079438443165</t>
+          <t>16948896777263.1</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.21047928081414</t>
+          <t>81786025002412.5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.263073764960419</t>
+          <t>-65919803663594.7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0002209146834375</t>
+          <t>57806190080693.7</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.21044482377627</t>
+          <t>278940781182648.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.263137621910372</t>
+          <t>-224827182012912.0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.38569499527009e-05</t>
+          <t>197154756180235.0</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.21055578915471</t>
+          <t>951360081438000.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.263200716984463</t>
+          <t>-766799337416447.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0001109653784416</t>
+          <t>672419300255353.0</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.21056392269057</t>
+          <t>3244724563817280.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.263164451581715</t>
+          <t>-2615258611516700.0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.62654027479259e-05</t>
+          <t>2293364482379280.0</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.21050890826773</t>
+          <t>1.10665117240631e+16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.263136394781456</t>
+          <t>-8919644646742450.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.50144228352867e-05</t>
+          <t>7821787160245810.0</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.21050926111537</t>
+          <t>3.77436294915423e+16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-0.263156377307908</t>
+          <t>-3.04214888247785e+16</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.99825264526332e-05</t>
+          <t>2.66771177674792e+16</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.210536190358</t>
+          <t>1.28729052362291e+17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-0.263168549375092</t>
+          <t>-1.03756037260309e+17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.69292426333667e-05</t>
+          <t>9.09854228707487e+16</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.21053389389953</t>
+          <t>4.39045453373973e+17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-0.26315779808269</t>
+          <t>-3.53872071481071e+17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.07512924025777e-05</t>
+          <t>3.10316401011682e+17</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.21052087966279</t>
+          <t>1.49741574719168e+18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-0.26315268158597</t>
+          <t>-1.20692199009231e+18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.30142367362751e-05</t>
+          <t>1.05837029381771e+18</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.21052303119297</t>
+          <t>5.10711112643662e+18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.26315835319156</t>
+          <t>-4.11634827261667e+18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.67160558984092e-06</t>
+          <t>3.60969537924494e+18</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.21052923850544</t>
+          <t>1.74183984018394e+19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.26316041302834</t>
+          <t>-1.40392860852409e+19</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6.20731247780171e-06</t>
+          <t>1.23112872754028e+19</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1255,1403 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.21052769476473</t>
+          <t>5.94074801534409e+19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-0.263157471508758</t>
+          <t>-4.78826233179597e+19</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.9415195820226e-06</t>
+          <t>4.19890817516015e+19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2.02616142814186e+20</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-1.6330927383978e+20</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.43208662660745e+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6.91045996612948e+20</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-5.56985333593304e+20</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.88429853798762e+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2.35689300369678e+21</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-1.89966347007585e+21</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.66584700708384e+21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>8.03845859479908e+21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-6.4790239201803e+21</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.6815655911023e+21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2.74161009765602e+22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-2.20974670616751e+22</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.93776423817611e+22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9.35058113309509e+22</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-7.53659897783226e+22</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.60897103543907e+22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3.18912479937779e+23</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-2.57044501951874e+23</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.25406668606829e+23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.08768822399811e+24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-8.76680266231855e+23</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.68775744060334e+23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3.70968760098378e+24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-2.99002034030766e+24</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.62199937698567e+24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.26523224148804e+25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-1.01978132505256e+25</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.94263481389664e+24</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4.31522218872643e+25</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.4780831986546e+25</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.04998994723839e+25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.471756878103e+26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1.18624085767994e+26</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04023465923035e+26</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5.01959855949562e+26</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-4.04581285741978e+26</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.54784168139263e+26</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.7119926581194e+27</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-1.37987168215374e+27</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.21003280216983e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5.83895071830051e+27</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-4.70621337741287e+27</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.12695806018111e+27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.99144227219953e+28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-1.60510898514636e+28</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.40754720036948e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6.79204623370675e+28</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-5.4744114802841e+28</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.80060396150722e+28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2.31650661858542e+29</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-1.86711191157738e+29</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.63730199521475e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7.90071611603483e+29</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-6.36800303175825e+29</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.58420949744941e+29</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2.69463141807427e+30</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-2.17188173676335e+30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.90455980647078e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9.19035486484111e+30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-7.40745608153988e+30</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.49572344676685e+30</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3.13447776104646e+31</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-2.5263993278802e+31</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.21544227456235e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.06905021394565e+32</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-8.61657969167016e+31</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.55602437841003e+31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3.64612049298983e+32</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-2.93878504334464e+32</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.57707027904418e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.24355193759648e+33</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-1.00230692920245e+33</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.78939888297493e+32</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4.24127898261497e+33</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-3.41848473266997e+33</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.9977270450185e+33</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.44653768487864e+34</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-1.16591410545235e+34</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.02240978661714e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4.93358555839194e+34</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-3.97648609719266e+34</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.4870478735133e+34</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.68265692048082e+35</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-1.3562269816636e+35</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.18929836464163e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5.73889776214778e+35</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-4.62557036749332e+35</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.05624084166695e+35</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.95731804407125e+36</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-1.57760474565897e+36</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.38342826785647e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6.67566157201085e+36</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-5.38060506227784e+36</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.7183435279395993e+36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2.2768122717209396e+37</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-1.83511813816946e+37</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.60924611451985e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7.7653339144596e+37</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-6.2588845344707e+37</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.4885216427386595e+37</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2.64845773856789e+38</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-2.134665600053e+38</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.87192434712193e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9.03287414327276e+38</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-7.28052610485644e+38</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.38441640470488e+38</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3.0807671234476903e+39</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-2.48310837829495e+39</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.1774797091204203e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.05073157428909e+40</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-8.46893085685894e+39</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.426548619443171e+39</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3.5836426349957e+40</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-2.88842768544427e+40</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.53291106070661e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.22224313512688e+41</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-9.85131964713582e+40</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.638788716273081e+40</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4.16860282545046e+41</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-3.35990751228094e+41</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.9463596903235802e+41</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.42175063348174e+42</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-1.14593566095117e+42</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.0048903509366999e+42</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4.84904642741376e+42</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-3.90834728110754e+42</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.42729579393201e+42</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.6538238634458798e+43</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-1.33298744338419e+43</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.16891922070451e+43</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5.64055925684724e+43</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-4.546309210568389e+43</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.98673539340136e+43</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.92377854941057e+44</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-1.55057180325905e+44</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.35972262372585e+44</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6.56127121203377e+44</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-5.28840605798004e+44</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.6374926626231996e+44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2.2377981047274598e+45</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-1.80367259196235e+45</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.58167098352408e+45</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7.63227154569879e+45</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-6.151635830019459e+45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.3944734409713296e+45</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2.60307526511101e+46</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-2.0980871780064702e+46</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.83984811054113e+46</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8.87809192225531e+46</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-7.15577112844349e+46</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.2750166571443e+46</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3.02797684094831e+47</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-2.44055923793017e+47</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.14016764872278e+47</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.0327268324780001e+48</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-8.32381204894949e+47</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.2992914838317296e+47</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3.52223536222964e+48</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-2.8389332227394697e+48</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.4895085297516298e+48</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.20129946824105e+49</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-9.68251300699547e+48</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8.490759320180909e+48</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4.09717200579895e+49</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-3.30233403800073e+49</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.8958725375579e+49</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.39738831897444e+50</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-1.12629955577227e+50</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.87671118394549e+49</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4.76595591115645e+50</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-3.84137605322568e+50</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.368567592182e+50</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.6254848733641398e+51</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-1.31014612468508e+51</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.1488892822485e+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5.54390582453903e+51</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-4.46840622798693e+51</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.91842095117489e+51</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.8908137685555998e+52</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>-1.52400208206636e+52</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.3364231861017e+52</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>6.44884098054949e+52</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>-5.197786923658769e+52</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.55802721199389e+52</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2.19945246242751e+53</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-1.7727658788448898e+53</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.5545683643725598e+53</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_sor.xlsx
+++ b/app/tables/tabla_sor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>xi_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
@@ -463,17 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.96666666666667</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.453333333333333</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.96666666666667</t>
+          <t>1.13333333333333</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -485,17 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.933111111111112</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.71452222222222</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.03355555555555</t>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.76</t>
         </is>
       </c>
     </row>
@@ -507,17 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.77525962962963</t>
+          <t>5.372</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.41586375925926</t>
+          <t>2.686</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.29865846296296</t>
+          <t>0.895333333333333</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.332</t>
         </is>
       </c>
     </row>
@@ -529,17 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.48832879567901</t>
+          <t>3.0396</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.41881589219136</t>
+          <t>1.5198</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.0029521329321</t>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.3324</t>
         </is>
       </c>
     </row>
@@ -551,17 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.42084083744959</t>
+          <t>4.67228</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.6241141636339</t>
+          <t>2.33614</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.06748795822942</t>
+          <t>0.778713333333333</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.63268</t>
         </is>
       </c>
     </row>
@@ -573,17 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.05174672105941</t>
+          <t>3.529404</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.944135372555771</t>
+          <t>1.764702</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.679978791078128</t>
+          <t>0.588234</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.142876</t>
         </is>
       </c>
     </row>
@@ -595,17 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.99543391747681</t>
+          <t>4.3294172</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.46798640935567</t>
+          <t>2.1647086</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.523851036799902</t>
+          <t>0.721569533333333</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.8000132</t>
         </is>
       </c>
     </row>
@@ -617,17 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.73800395913135</t>
+          <t>3.76940796</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.32010614818938</t>
+          <t>1.88470398</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.257429958345456</t>
+          <t>0.62823466</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.56000924</t>
         </is>
       </c>
     </row>
@@ -639,17 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.00200374463407</t>
+          <t>4.161414428</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.19922251332847</t>
+          <t>2.080707214</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.263999785502719</t>
+          <t>0.693569071333333</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.392006468</t>
         </is>
       </c>
     </row>
@@ -661,17 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.88570462120335</t>
+          <t>3.8870099004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.38269531264722</t>
+          <t>1.9435049502</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.183472799318749</t>
+          <t>0.6478349834</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.274404527600001</t>
         </is>
       </c>
     </row>
@@ -683,17 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.8631460879909</t>
+          <t>4.07909306972</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.27343910635468</t>
+          <t>2.03954653486</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.10925620629254</t>
+          <t>0.679848844953333</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.192083169320001</t>
         </is>
       </c>
     </row>
@@ -705,17 +765,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.94084891147205</t>
+          <t>3.944634851196</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.28387105080048</t>
+          <t>1.972317425598</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0777028234811548</t>
+          <t>0.657439141866</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.134458218524001</t>
         </is>
       </c>
     </row>
@@ -727,17 +792,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.88054549984929</t>
+          <t>4.0387556041628</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.32782658956777</t>
+          <t>2.0193778020814</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0603034116227592</t>
+          <t>0.673125934027133</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0941207529668002</t>
         </is>
       </c>
     </row>
@@ -749,17 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.89784974935043</t>
+          <t>3.97287107708604</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2823491003547</t>
+          <t>1.98643553854302</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0454774892130665</t>
+          <t>0.66214517951434</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0658845270767596</t>
         </is>
       </c>
     </row>
@@ -771,17 +846,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.91150735192037</t>
+          <t>4.01899024603977</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.30257438061939</t>
+          <t>2.00949512301989</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0202252802646943</t>
+          <t>0.669831707673295</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.0461191689537319</t>
         </is>
       </c>
     </row>
@@ -793,17 +873,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.89048603797142</t>
+          <t>3.98670682777216</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.30628480129072</t>
+          <t>1.99335341388608</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0210213139489541</t>
+          <t>0.664451137962027</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.0322834182676126</t>
         </is>
       </c>
     </row>
@@ -815,17 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.90309838602193</t>
+          <t>4.00930522055949</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.29296701097785</t>
+          <t>2.00465261027974</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.013317790312867</t>
+          <t>0.668217536759915</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.0225983927873288</t>
         </is>
       </c>
     </row>
@@ -837,17 +927,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.90181649023053</t>
+          <t>3.99348634560836</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.30337907561955</t>
+          <t>1.99674317280418</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0104120646417001</t>
+          <t>0.665581057601393</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.0158188749511301</t>
         </is>
       </c>
     </row>
@@ -859,17 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.89681364732088</t>
+          <t>4.00455955807415</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.30034304684356</t>
+          <t>2.00227977903707</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.005002842909648</t>
+          <t>0.667426593012358</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0110732124657908</t>
         </is>
       </c>
     </row>
@@ -881,17 +981,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.90203605366403</t>
+          <t>3.9968083093481</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.29802922159508</t>
+          <t>1.99840415467405</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0052224063431478</t>
+          <t>0.666134718224683</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0077512487260533</t>
         </is>
       </c>
     </row>
@@ -903,17 +1008,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.89969153686463</t>
+          <t>4.00223418345633</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.30164173854851</t>
+          <t>2.00111709172817</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0036125169534251</t>
+          <t>0.667039030576056</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.0054258741082366</t>
         </is>
       </c>
     </row>
@@ -925,17 +1035,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.89928560568394</t>
+          <t>3.99843607158057</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2994580181847</t>
+          <t>1.99921803579028</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0021837203638059</t>
+          <t>0.666406011930095</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.0037981118757652</t>
         </is>
       </c>
     </row>
@@ -947,17 +1062,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.90080719904991</t>
+          <t>4.0010947498936</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.29969326807828</t>
+          <t>2.0005473749468</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0015215933659771</t>
+          <t>0.666849124982267</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.0026586783130362</t>
         </is>
       </c>
     </row>
@@ -969,17 +1089,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.8996087754207</t>
+          <t>3.99923367507448</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.30054725323761</t>
+          <t>1.99961683753724</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0011984236292148</t>
+          <t>0.666538945845746</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.0018610748191259</t>
         </is>
       </c>
     </row>
@@ -991,17 +1116,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.89996374703753</t>
+          <t>4.00053642744787</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.29964773775177</t>
+          <t>2.00026821372393</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0008995154858351</t>
+          <t>0.666756071241311</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.0013027523733883</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1143,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.90022499234772</t>
+          <t>3.99962450078649</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.30005534007819</t>
+          <t>1.99981225039325</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.000407602326423</t>
+          <t>0.666604083464416</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.0009119266613719</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1170,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.89981114597895</t>
+          <t>4.00026284944945</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.30012178786316</t>
+          <t>2.00013142472473</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0004138463687719</t>
+          <t>0.666710474908242</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.0006383486629601</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1197,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.90006318469228</t>
+          <t>3.99981600538538</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.29986104150735</t>
+          <t>1.99990800269269</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0002607463558024</t>
+          <t>0.666636000897564</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.0004468440640721</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1224,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.90003451386124</t>
+          <t>4.00012879623023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.3000679341628</t>
+          <t>2.00006439811512</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.0002068926554479</t>
+          <t>0.666688132705039</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.0003127908448501</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1251,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.89993734427155</t>
+          <t>3.99990984263884</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.30000570345522</t>
+          <t>1.99995492131942</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.71695896905267e-05</t>
+          <t>0.666651640439806</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.0002189535913945</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1278,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.90004062705196</t>
+          <t>4.00006311015281</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.29996147458718</t>
+          <t>2.00003155507641</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.0001032827804108</t>
+          <t>0.666677185025469</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.0001532675139763</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1305,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.8999933921309</t>
+          <t>3.99995582289303</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.30003258447771</t>
+          <t>1.99997791144652</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.11098905343821e-05</t>
+          <t>0.666659303815505</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.0001072872597838</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1332,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.899986160971</t>
+          <t>4.00003092397488</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.29998895404025</t>
+          <t>2.00001546198744</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.36304374655805e-05</t>
+          <t>0.66667182066248</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7.51010818493825e-05</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1359,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.90001594669749</t>
+          <t>3.99997835321758</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.29999417747896</t>
+          <t>1.99998917660879</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.97857264883739e-05</t>
+          <t>0.666663058869598</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5.2570757294923e-05</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1386,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.89999213674035</t>
+          <t>4.00001515274769</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.30001075953543</t>
+          <t>2.00000757637385</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.38099571445716e-05</t>
+          <t>0.666669192124615</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.67995301067126e-05</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1413,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.89999940721168</t>
+          <t>3.99998939307662</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.29999297219527</t>
+          <t>1.99999469653831</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.77873401647766e-05</t>
+          <t>0.666664898846103</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2.57596710753205e-05</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1440,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.90000439737451</t>
+          <t>4.00000742484637</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.30000118169498</t>
+          <t>2.00000371242318</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8.20949971158669e-06</t>
+          <t>0.666667904141061</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.8031769752902e-05</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1467,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.89999625221069</t>
+          <t>3.99999480260754</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.30000235843443</t>
+          <t>1.99999740130377</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8.14516381586472e-06</t>
+          <t>0.66666580043459</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.26222388270314e-05</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1494,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.90000128700634</t>
+          <t>4.00000363817472</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.29999725514051</t>
+          <t>2.00000181908736</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.10329391589792e-06</t>
+          <t>0.66666727302912</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8.83556717878875e-06</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1521,49 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.90000065451594</t>
+          <t>3.9999974532777</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.3000013650631</t>
+          <t>1.99999872663885</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.10992258448317e-06</t>
+          <t>0.666666242212949</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6.18489702519653e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4.00000178270561</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2.00000089135281</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.666666963784269</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4.32942791794844e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_sor.xlsx
+++ b/app/tables/tabla_sor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>xi_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
@@ -472,6 +477,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/app/tables/tabla_sor.xlsx
+++ b/app/tables/tabla_sor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>xi_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>E</t>
         </is>
       </c>
@@ -477,11 +472,6 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
